--- a/Attendance/t1214.xlsx
+++ b/Attendance/t1214.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t xml:space="preserve">Név</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">DOXP25</t>
   </si>
   <si>
-    <t xml:space="preserve">Fehér Máté János</t>
+    <t xml:space="preserve">Fehér Máté János +1</t>
   </si>
   <si>
     <t xml:space="preserve">BZ33U3</t>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">Silva Terzan Matthieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Manuel Navarro Castillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sólyom Tamás</t>
   </si>
 </sst>
 </file>
@@ -240,11 +246,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -346,356 +348,413 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="8" style="1" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="1" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="8" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="n">
+      <c r="C1" s="2" t="n">
         <v>43356</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="V1" s="2"/>
+      <c r="D1" s="2" t="n">
+        <v>43363</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="V1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="V2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="V2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="V3" s="2"/>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="V3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="V4" s="2"/>
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="V4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="V5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="V5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="V6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="V6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="V7" s="2"/>
+      <c r="C7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="V7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="V8" s="2"/>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="V8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="V9" s="2"/>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="V9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="V10" s="2"/>
+      <c r="C10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="V10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="V11" s="2"/>
+      <c r="C11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="V11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="V12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="V12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="V13" s="2"/>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="V13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="V14" s="2"/>
+      <c r="C14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="V14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="V15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="V15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="V16" s="2"/>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="V16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="V17" s="2"/>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="V17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="V18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="V18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="V19" s="2"/>
+      <c r="C19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="V19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="V20" s="2"/>
+      <c r="C20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="V20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Attendance/t1214.xlsx
+++ b/Attendance/t1214.xlsx
@@ -173,10 +173,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -261,19 +262,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -298,10 +299,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -309,14 +310,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="9" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="10" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -330,473 +332,533 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="n">
+        <v>43377</v>
+      </c>
+      <c r="E1" s="3" t="n">
         <v>43356</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="F1" s="3" t="n">
         <v>43363</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="G1" s="3" t="n">
         <v>43370</v>
       </c>
-      <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="X1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D2:I2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:I2, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="W2" s="1"/>
+        <f aca="false">IF(COUNTIF(E2:J2,"0")&gt;4,"aláírás megtagadva", COUNTIF(E2:J2, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="X2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D3:I3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:I3, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <f aca="false">IF(COUNTIF(E3:J3,"0")&gt;4,"aláírás megtagadva", COUNTIF(E3:J3, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="W3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="X3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D4:I4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:I4, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="W4" s="1"/>
+        <f aca="false">IF(COUNTIF(E4:J4,"0")&gt;4,"aláírás megtagadva", COUNTIF(E4:J4, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="X4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D5:I5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:I5, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="W5" s="1"/>
+        <f aca="false">IF(COUNTIF(E5:J5,"0")&gt;4,"aláírás megtagadva", COUNTIF(E5:J5, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="X5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D6:I6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:I6, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <f aca="false">IF(COUNTIF(E6:J6,"0")&gt;4,"aláírás megtagadva", COUNTIF(E6:J6, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="W6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="X6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D7:I7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:I7, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="W7" s="1"/>
+        <f aca="false">IF(COUNTIF(E7:J7,"0")&gt;4,"aláírás megtagadva", COUNTIF(E7:J7, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="X7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D8:I8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:I8, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
+        <f aca="false">IF(COUNTIF(E8:J8,"0")&gt;4,"aláírás megtagadva", COUNTIF(E8:J8, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="W8" s="1"/>
+      <c r="G8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="X8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D9:I9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:I9, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="W9" s="1"/>
+        <f aca="false">IF(COUNTIF(E9:J9,"0")&gt;4,"aláírás megtagadva", COUNTIF(E9:J9, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="X9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D10:I10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:I10, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <f aca="false">IF(COUNTIF(E10:J10,"0")&gt;4,"aláírás megtagadva", COUNTIF(E10:J10, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="W10" s="1"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="X10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D11:I11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:I11, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="W11" s="1"/>
+        <f aca="false">IF(COUNTIF(E11:J11,"0")&gt;4,"aláírás megtagadva", COUNTIF(E11:J11, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="X11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D12:I12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:I12, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <f aca="false">IF(COUNTIF(E12:J12,"0")&gt;4,"aláírás megtagadva", COUNTIF(E12:J12, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="W12" s="1"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="X12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D13:I13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:I13, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="W13" s="1"/>
+        <f aca="false">IF(COUNTIF(E13:J13,"0")&gt;4,"aláírás megtagadva", COUNTIF(E13:J13, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="X13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D14:I14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:I14, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="W14" s="1"/>
+        <f aca="false">IF(COUNTIF(E14:J14,"0")&gt;4,"aláírás megtagadva", COUNTIF(E14:J14, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="X14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D15:I15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:I15, "0"))</f>
+        <f aca="false">IF(COUNTIF(E15:J15,"0")&gt;4,"aláírás megtagadva", COUNTIF(E15:J15, "0"))</f>
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="W15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="X15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D16:I16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:I16, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="W16" s="1"/>
+        <f aca="false">IF(COUNTIF(E16:J16,"0")&gt;4,"aláírás megtagadva", COUNTIF(E16:J16, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="X16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D17:I17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:I17, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="W17" s="1"/>
+        <f aca="false">IF(COUNTIF(E17:J17,"0")&gt;4,"aláírás megtagadva", COUNTIF(E17:J17, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="X17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D18:I18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:I18, "0"))</f>
+        <f aca="false">IF(COUNTIF(E18:J18,"0")&gt;4,"aláírás megtagadva", COUNTIF(E18:J18, "0"))</f>
         <v>3</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="W18" s="1"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="X18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D19:I19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:I19, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="W19" s="1"/>
+        <f aca="false">IF(COUNTIF(E19:J19,"0")&gt;4,"aláírás megtagadva", COUNTIF(E19:J19, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="X19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D20:I20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:I20, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="W20" s="1"/>
+        <f aca="false">IF(COUNTIF(E20:J20,"0")&gt;4,"aláírás megtagadva", COUNTIF(E20:J20, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="X20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
@@ -804,16 +866,19 @@
         <v>44</v>
       </c>
       <c r="C21" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D21:I21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:I21, "0"))</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(E21:J21,"0")&gt;4,"aláírás megtagadva", COUNTIF(E21:J21, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>1</v>
       </c>
       <c r="F21" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -823,16 +888,19 @@
         <v>45</v>
       </c>
       <c r="C22" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D22:I22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:I22, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(E22:J22,"0")&gt;4,"aláírás megtagadva", COUNTIF(E22:J22, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -842,16 +910,19 @@
         <v>46</v>
       </c>
       <c r="C23" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D23:I23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:I23, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(E23:J23,"0")&gt;4,"aláírás megtagadva", COUNTIF(E23:J23, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -861,16 +932,19 @@
         <v>47</v>
       </c>
       <c r="C24" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D24:I24,"0")&gt;4,"aláírás megtagadva", COUNTIF(D24:I24, "0"))</f>
+        <f aca="false">IF(COUNTIF(E24:J24,"0")&gt;4,"aláírás megtagadva", COUNTIF(E24:J24, "0"))</f>
         <v>2</v>
       </c>
-      <c r="D24" s="6" t="n">
+      <c r="D24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -880,16 +954,19 @@
         <v>48</v>
       </c>
       <c r="C25" s="0" t="n">
-        <f aca="false">IF(COUNTIF(D25:I25,"0")&gt;4,"aláírás megtagadva", COUNTIF(D25:I25, "0"))</f>
+        <f aca="false">IF(COUNTIF(E25:J25,"0")&gt;4,"aláírás megtagadva", COUNTIF(E25:J25, "0"))</f>
         <v>2</v>
       </c>
-      <c r="D25" s="6" t="n">
-        <v>0</v>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="6" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Attendance/t1214.xlsx
+++ b/Attendance/t1214.xlsx
@@ -173,13 +173,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
-    <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -206,6 +205,13 @@
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFED1C24"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -253,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -262,19 +268,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -291,6 +301,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -299,10 +369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,14 +381,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="10" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="11" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -328,645 +399,720 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="3" t="n">
         <v>43377</v>
       </c>
       <c r="E1" s="3" t="n">
+        <v>43384</v>
+      </c>
+      <c r="F1" s="4" t="n">
         <v>43356</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="G1" s="4" t="n">
         <v>43363</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="H1" s="4" t="n">
         <v>43370</v>
       </c>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="X1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E2:J2,"0")&gt;4,"aláírás megtagadva", COUNTIF(E2:J2, "0"))</f>
+      <c r="C2" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D2:H2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:H2, "0"))</f>
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="X2" s="1"/>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="Y2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E3:J3,"0")&gt;4,"aláírás megtagadva", COUNTIF(E3:J3, "0"))</f>
-        <v>1</v>
+      <c r="C3" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D3:H3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:H3, "0"))</f>
+        <v>3</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="X3" s="1"/>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="Y3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E4:J4,"0")&gt;4,"aláírás megtagadva", COUNTIF(E4:J4, "0"))</f>
+      <c r="C4" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D4:H4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:H4, "0"))</f>
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="X4" s="1"/>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="Y4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E5:J5,"0")&gt;4,"aláírás megtagadva", COUNTIF(E5:J5, "0"))</f>
+      <c r="C5" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D5:H5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:H5, "0"))</f>
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="X5" s="1"/>
+      <c r="E5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="Y5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E6:J6,"0")&gt;4,"aláírás megtagadva", COUNTIF(E6:J6, "0"))</f>
+      <c r="C6" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D6:H6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:H6, "0"))</f>
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="X6" s="1"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="Y6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E7:J7,"0")&gt;4,"aláírás megtagadva", COUNTIF(E7:J7, "0"))</f>
-        <v>0</v>
+      <c r="C7" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D7:H7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:H7, "0"))</f>
+        <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="X7" s="1"/>
+      <c r="E7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="Y7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E8:J8,"0")&gt;4,"aláírás megtagadva", COUNTIF(E8:J8, "0"))</f>
+      <c r="C8" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D8:H8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:H8, "0"))</f>
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="X8" s="1"/>
+      <c r="H8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="Y8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E9:J9,"0")&gt;4,"aláírás megtagadva", COUNTIF(E9:J9, "0"))</f>
+      <c r="C9" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D9:H9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:H9, "0"))</f>
         <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="X9" s="1"/>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="Y9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E10:J10,"0")&gt;4,"aláírás megtagadva", COUNTIF(E10:J10, "0"))</f>
+      <c r="C10" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D10:H10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:H10, "0"))</f>
         <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="X10" s="1"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="Y10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E11:J11,"0")&gt;4,"aláírás megtagadva", COUNTIF(E11:J11, "0"))</f>
+      <c r="C11" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D11:H11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:H11, "0"))</f>
         <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="X11" s="1"/>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="Y11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E12:J12,"0")&gt;4,"aláírás megtagadva", COUNTIF(E12:J12, "0"))</f>
+      <c r="C12" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D12:H12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:H12, "0"))</f>
         <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="X12" s="1"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="Y12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E13:J13,"0")&gt;4,"aláírás megtagadva", COUNTIF(E13:J13, "0"))</f>
-        <v>0</v>
+      <c r="C13" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D13:H13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:H13, "0"))</f>
+        <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="X13" s="1"/>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="Y13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E14:J14,"0")&gt;4,"aláírás megtagadva", COUNTIF(E14:J14, "0"))</f>
+      <c r="C14" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D14:H14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:H14, "0"))</f>
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="X14" s="1"/>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="Y14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E15:J15,"0")&gt;4,"aláírás megtagadva", COUNTIF(E15:J15, "0"))</f>
-        <v>2</v>
+      <c r="C15" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D15:H15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:H15, "0"))</f>
+        <v>3</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="X15" s="1"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="Y15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E16:J16,"0")&gt;4,"aláírás megtagadva", COUNTIF(E16:J16, "0"))</f>
-        <v>0</v>
+      <c r="C16" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D16:H16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:H16, "0"))</f>
+        <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="X16" s="1"/>
+      <c r="E16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="Y16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E17:J17,"0")&gt;4,"aláírás megtagadva", COUNTIF(E17:J17, "0"))</f>
+      <c r="C17" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D17:H17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:H17, "0"))</f>
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="X17" s="1"/>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="Y17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E18:J18,"0")&gt;4,"aláírás megtagadva", COUNTIF(E18:J18, "0"))</f>
+      <c r="C18" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D18:H18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:H18, "0"))</f>
         <v>3</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="X18" s="1"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="Y18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E19:J19,"0")&gt;4,"aláírás megtagadva", COUNTIF(E19:J19, "0"))</f>
+      <c r="C19" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D19:H19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:H19, "0"))</f>
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="X19" s="1"/>
+      <c r="E19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="Y19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E20:J20,"0")&gt;4,"aláírás megtagadva", COUNTIF(E20:J20, "0"))</f>
+      <c r="C20" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D20:H20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:H20, "0"))</f>
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="X20" s="1"/>
+      <c r="E20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="Y20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E21:J21,"0")&gt;4,"aláírás megtagadva", COUNTIF(E21:J21, "0"))</f>
-        <v>0</v>
+      <c r="C21" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D21:H21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:H21, "0"))</f>
+        <v>2</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6" t="n">
+      <c r="E21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E22:J22,"0")&gt;4,"aláírás megtagadva", COUNTIF(E22:J22, "0"))</f>
+      <c r="C22" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D22:H22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:H22, "0"))</f>
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6" t="n">
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E23:J23,"0")&gt;4,"aláírás megtagadva", COUNTIF(E23:J23, "0"))</f>
+      <c r="C23" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D23:H23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:H23, "0"))</f>
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6" t="n">
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E24:J24,"0")&gt;4,"aláírás megtagadva", COUNTIF(E24:J24, "0"))</f>
-        <v>2</v>
+      <c r="C24" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D24:H24,"0")&gt;4,"aláírás megtagadva", COUNTIF(D24:H24, "0"))</f>
+        <v>4</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="n">
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="0" t="n">
-        <f aca="false">IF(COUNTIF(E25:J25,"0")&gt;4,"aláírás megtagadva", COUNTIF(E25:J25, "0"))</f>
-        <v>2</v>
+      <c r="C25" s="2" t="n">
+        <f aca="false">IF(COUNTIF(D25:H25,"0")&gt;4,"aláírás megtagadva", COUNTIF(D25:H25, "0"))</f>
+        <v>3</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6" t="n">
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/Attendance/t1214.xlsx
+++ b/Attendance/t1214.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t xml:space="preserve">Neptun kód</t>
   </si>
@@ -154,13 +154,13 @@
     <t xml:space="preserve">Zubik Zalán Márk</t>
   </si>
   <si>
+    <t xml:space="preserve">Sólyom Tamás</t>
+  </si>
+  <si>
     <t xml:space="preserve">Silva Terzan Matthieu</t>
   </si>
   <si>
     <t xml:space="preserve">Jose Manuel Navarro Castillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sólyom Tamás</t>
   </si>
   <si>
     <t xml:space="preserve">Burak Koc</t>
@@ -369,10 +369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -867,7 +867,9 @@
       <c r="H16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="Y16" s="1"/>
     </row>
@@ -998,16 +1000,16 @@
       </c>
       <c r="C21" s="2" t="n">
         <f aca="false">IF(COUNTIF(D21:H21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:H21, "0"))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>1</v>
@@ -1021,18 +1023,15 @@
       <c r="B22" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D22:H22,"0")&gt;4,"aláírás megtagadva", COUNTIF(D22:H22, "0"))</f>
-        <v>1</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="7" t="n">
         <v>1</v>
@@ -1046,10 +1045,7 @@
       <c r="B23" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D23:H23,"0")&gt;4,"aláírás megtagadva", COUNTIF(D23:H23, "0"))</f>
-        <v>1</v>
-      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
@@ -1071,10 +1067,7 @@
       <c r="B24" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D24:H24,"0")&gt;4,"aláírás megtagadva", COUNTIF(D24:H24, "0"))</f>
-        <v>4</v>
-      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="0" t="n">
         <v>0</v>
       </c>
@@ -1096,10 +1089,7 @@
       <c r="B25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D25:H25,"0")&gt;4,"aláírás megtagadva", COUNTIF(D25:H25, "0"))</f>
-        <v>3</v>
-      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
@@ -1116,6 +1106,7 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Attendance/t1214.xlsx
+++ b/Attendance/t1214.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t xml:space="preserve">Neptun kód</t>
   </si>
@@ -369,10 +369,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y1048576"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -380,16 +380,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="11" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="25" min="25" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="26" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="12" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="26" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -406,20 +404,23 @@
         <v>43377</v>
       </c>
       <c r="E1" s="3" t="n">
+        <v>43391</v>
+      </c>
+      <c r="F1" s="3" t="n">
         <v>43384</v>
       </c>
-      <c r="F1" s="4" t="n">
+      <c r="G1" s="4" t="n">
         <v>43356</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="H1" s="4" t="n">
         <v>43363</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="I1" s="4" t="n">
         <v>43370</v>
       </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -429,7 +430,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D2:H2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:H2, "0"))</f>
+        <f aca="false">IF(COUNTIF(D2:I2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:I2, "0"))</f>
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
@@ -438,8 +439,8 @@
       <c r="E2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -447,9 +448,12 @@
       <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J2" s="6"/>
-      <c r="Y2" s="1"/>
+      <c r="K2" s="6"/>
+      <c r="Z2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -459,8 +463,8 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D3:H3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:H3, "0"))</f>
-        <v>3</v>
+        <f aca="false">IF(COUNTIF(D3:I3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:I3, "0"))</f>
+        <v>4</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -468,18 +472,21 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J3" s="6"/>
-      <c r="Y3" s="1"/>
+      <c r="K3" s="6"/>
+      <c r="Z3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -489,7 +496,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D4:H4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:H4, "0"))</f>
+        <f aca="false">IF(COUNTIF(D4:I4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:I4, "0"))</f>
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -498,8 +505,8 @@
       <c r="E4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>5</v>
@@ -507,9 +514,12 @@
       <c r="H4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J4" s="6"/>
-      <c r="Y4" s="1"/>
+      <c r="K4" s="6"/>
+      <c r="Z4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -519,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D5:H5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:H5, "0"))</f>
+        <f aca="false">IF(COUNTIF(D5:I5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:I5, "0"))</f>
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -528,8 +538,8 @@
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>5</v>
@@ -537,9 +547,12 @@
       <c r="H5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J5" s="6"/>
-      <c r="Y5" s="1"/>
+      <c r="K5" s="6"/>
+      <c r="Z5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -549,27 +562,30 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D6:H6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:H6, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(D6:I6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:I6, "0"))</f>
+        <v>2</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="Y6" s="1"/>
+      <c r="K6" s="6"/>
+      <c r="Z6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -579,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D7:H7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:H7, "0"))</f>
+        <f aca="false">IF(COUNTIF(D7:I7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:I7, "0"))</f>
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -588,8 +604,8 @@
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>5</v>
@@ -597,9 +613,12 @@
       <c r="H7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J7" s="6"/>
-      <c r="Y7" s="1"/>
+      <c r="K7" s="6"/>
+      <c r="Z7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -609,7 +628,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D8:H8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:H8, "0"))</f>
+        <f aca="false">IF(COUNTIF(D8:I8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:I8, "0"))</f>
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
@@ -618,18 +637,21 @@
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J8" s="6"/>
-      <c r="Y8" s="1"/>
+      <c r="K8" s="6"/>
+      <c r="Z8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -639,17 +661,17 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D9:H9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:H9, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(D9:I9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:I9, "0"))</f>
+        <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>5</v>
@@ -657,9 +679,12 @@
       <c r="H9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J9" s="6"/>
-      <c r="Y9" s="1"/>
+      <c r="K9" s="6"/>
+      <c r="Z9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -669,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D10:H10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:H10, "0"))</f>
+        <f aca="false">IF(COUNTIF(D10:I10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:I10, "0"))</f>
         <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
@@ -678,18 +703,21 @@
       <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>5</v>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="Y10" s="1"/>
+      <c r="K10" s="6"/>
+      <c r="Z10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -699,7 +727,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D11:H11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:H11, "0"))</f>
+        <f aca="false">IF(COUNTIF(D11:I11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:I11, "0"))</f>
         <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
@@ -708,8 +736,8 @@
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>5</v>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>5</v>
@@ -717,9 +745,12 @@
       <c r="H11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J11" s="6"/>
-      <c r="Y11" s="1"/>
+      <c r="K11" s="6"/>
+      <c r="Z11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -729,7 +760,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D12:H12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:H12, "0"))</f>
+        <f aca="false">IF(COUNTIF(D12:I12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:I12, "0"))</f>
         <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
@@ -738,18 +769,21 @@
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>5</v>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="Y12" s="1"/>
+      <c r="K12" s="6"/>
+      <c r="Z12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
@@ -759,8 +793,8 @@
         <v>29</v>
       </c>
       <c r="C13" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D13:H13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:H13, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(D13:I13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:I13, "0"))</f>
+        <v>2</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -768,8 +802,8 @@
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>5</v>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>5</v>
@@ -777,9 +811,12 @@
       <c r="H13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J13" s="6"/>
-      <c r="Y13" s="1"/>
+      <c r="K13" s="6"/>
+      <c r="Z13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -789,7 +826,7 @@
         <v>31</v>
       </c>
       <c r="C14" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D14:H14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:H14, "0"))</f>
+        <f aca="false">IF(COUNTIF(D14:I14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:I14, "0"))</f>
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
@@ -798,8 +835,8 @@
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>5</v>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>5</v>
@@ -807,9 +844,12 @@
       <c r="H14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J14" s="6"/>
-      <c r="Y14" s="1"/>
+      <c r="K14" s="6"/>
+      <c r="Z14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -819,7 +859,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D15:H15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:H15, "0"))</f>
+        <f aca="false">IF(COUNTIF(D15:I15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:I15, "0"))</f>
         <v>3</v>
       </c>
       <c r="D15" s="0" t="n">
@@ -828,18 +868,21 @@
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="H15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="Y15" s="1"/>
+      <c r="K15" s="6"/>
+      <c r="Z15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
@@ -849,7 +892,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D16:H16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:H16, "0"))</f>
+        <f aca="false">IF(COUNTIF(D16:I16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:I16, "0"))</f>
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
@@ -858,8 +901,8 @@
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>5</v>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>5</v>
@@ -867,11 +910,12 @@
       <c r="H16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="Y16" s="1"/>
+      <c r="K16" s="6"/>
+      <c r="Z16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -881,7 +925,7 @@
         <v>37</v>
       </c>
       <c r="C17" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D17:H17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:H17, "0"))</f>
+        <f aca="false">IF(COUNTIF(D17:I17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:I17, "0"))</f>
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -890,8 +934,8 @@
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>5</v>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>5</v>
@@ -899,9 +943,12 @@
       <c r="H17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J17" s="6"/>
-      <c r="Y17" s="1"/>
+      <c r="K17" s="6"/>
+      <c r="Z17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -911,7 +958,7 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D18:H18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:H18, "0"))</f>
+        <f aca="false">IF(COUNTIF(D18:I18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:I18, "0"))</f>
         <v>3</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -920,8 +967,8 @@
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>8</v>
@@ -929,9 +976,12 @@
       <c r="H18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J18" s="6"/>
-      <c r="Y18" s="1"/>
+      <c r="K18" s="6"/>
+      <c r="Z18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -941,7 +991,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D19:H19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:H19, "0"))</f>
+        <f aca="false">IF(COUNTIF(D19:I19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:I19, "0"))</f>
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -950,8 +1000,8 @@
       <c r="E19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>5</v>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>5</v>
@@ -959,9 +1009,12 @@
       <c r="H19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J19" s="6"/>
-      <c r="Y19" s="1"/>
+      <c r="K19" s="6"/>
+      <c r="Z19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -971,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="C20" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D20:H20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:H20, "0"))</f>
+        <f aca="false">IF(COUNTIF(D20:I20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:I20, "0"))</f>
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
@@ -980,8 +1033,8 @@
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>5</v>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>5</v>
@@ -989,9 +1042,12 @@
       <c r="H20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="J20" s="6"/>
-      <c r="Y20" s="1"/>
+      <c r="K20" s="6"/>
+      <c r="Z20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
@@ -999,7 +1055,7 @@
         <v>44</v>
       </c>
       <c r="C21" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D21:H21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:H21, "0"))</f>
+        <f aca="false">IF(COUNTIF(D21:I21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:I21, "0"))</f>
         <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
@@ -1008,13 +1064,16 @@
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="7" t="n">
-        <v>0</v>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G21" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1030,13 +1089,16 @@
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F22" s="7" t="n">
-        <v>1</v>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="G22" s="7" t="n">
         <v>1</v>
       </c>
       <c r="H22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,13 +1114,16 @@
       <c r="E23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F23" s="7" t="n">
-        <v>0</v>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G23" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1072,15 +1137,18 @@
         <v>0</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H24" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1096,17 +1164,19 @@
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="7" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Attendance/t1214.xlsx
+++ b/Attendance/t1214.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t xml:space="preserve">Neptun kód</t>
   </si>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">BZ33U3</t>
   </si>
   <si>
-    <t xml:space="preserve">Fehér Máté János +1</t>
+    <t xml:space="preserve">Fehér Máté János</t>
   </si>
   <si>
     <t xml:space="preserve">ISYZAV</t>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nagy Dániel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.9</t>
   </si>
   <si>
     <t xml:space="preserve">E704EG</t>
@@ -369,25 +372,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z25"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="12" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="26" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="13" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,23 +407,26 @@
         <v>43377</v>
       </c>
       <c r="E1" s="3" t="n">
+        <v>43398</v>
+      </c>
+      <c r="F1" s="3" t="n">
         <v>43391</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="G1" s="3" t="n">
         <v>43384</v>
       </c>
-      <c r="G1" s="4" t="n">
+      <c r="H1" s="4" t="n">
         <v>43356</v>
       </c>
-      <c r="H1" s="4" t="n">
+      <c r="I1" s="4" t="n">
         <v>43363</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="J1" s="4" t="n">
         <v>43370</v>
       </c>
-      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -430,20 +436,20 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D2:I2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:I2, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(D2:J2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:J2, "0"))</f>
+        <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>5</v>
@@ -451,9 +457,12 @@
       <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K2" s="6"/>
-      <c r="Z2" s="1"/>
+      <c r="L2" s="6"/>
+      <c r="AA2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -462,9 +471,9 @@
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D3:I3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:I3, "0"))</f>
-        <v>4</v>
+      <c r="C3" s="2" t="str">
+        <f aca="false">IF(COUNTIF(D3:J3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:J3, "0"))</f>
+        <v>aláírás megtagadva</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
@@ -475,18 +484,21 @@
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6"/>
+      <c r="J3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K3" s="6"/>
-      <c r="Z3" s="1"/>
+      <c r="L3" s="6"/>
+      <c r="AA3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -496,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D4:I4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:I4, "0"))</f>
+        <f aca="false">IF(COUNTIF(D4:J4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:J4, "0"))</f>
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
@@ -508,8 +520,8 @@
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>5</v>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>5</v>
@@ -517,9 +529,12 @@
       <c r="I4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K4" s="6"/>
-      <c r="Z4" s="1"/>
+      <c r="L4" s="6"/>
+      <c r="AA4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -529,7 +544,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D5:I5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:I5, "0"))</f>
+        <f aca="false">IF(COUNTIF(D5:J5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:J5, "0"))</f>
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
@@ -541,8 +556,8 @@
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
+      <c r="G5" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>5</v>
@@ -550,9 +565,12 @@
       <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K5" s="6"/>
-      <c r="Z5" s="1"/>
+      <c r="L5" s="6"/>
+      <c r="AA5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -562,30 +580,33 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D6:I6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:I6, "0"))</f>
+        <f aca="false">IF(COUNTIF(D6:J6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:J6, "0"))</f>
         <v>2</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="Z6" s="1"/>
+      <c r="L6" s="6"/>
+      <c r="AA6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -595,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D7:I7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:I7, "0"))</f>
+        <f aca="false">IF(COUNTIF(D7:J7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:J7, "0"))</f>
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
@@ -607,8 +628,8 @@
       <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>5</v>
+      <c r="G7" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>5</v>
@@ -616,9 +637,12 @@
       <c r="I7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K7" s="6"/>
-      <c r="Z7" s="1"/>
+      <c r="L7" s="6"/>
+      <c r="AA7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -628,30 +652,33 @@
         <v>18</v>
       </c>
       <c r="C8" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D8:I8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:I8, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(D8:J8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:J8, "0"))</f>
+        <v>2</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>5</v>
+      <c r="G8" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K8" s="6"/>
-      <c r="Z8" s="1"/>
+      <c r="L8" s="6"/>
+      <c r="AA8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -661,20 +688,20 @@
         <v>20</v>
       </c>
       <c r="C9" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D9:I9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:I9, "0"))</f>
+        <f aca="false">IF(COUNTIF(D9:J9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:J9, "0"))</f>
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>5</v>
@@ -682,9 +709,12 @@
       <c r="I9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K9" s="6"/>
-      <c r="Z9" s="1"/>
+      <c r="L9" s="6"/>
+      <c r="AA9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -694,30 +724,33 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D10:I10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:I10, "0"))</f>
+        <f aca="false">IF(COUNTIF(D10:J10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:J10, "0"))</f>
         <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
+      <c r="E10" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>5</v>
+      <c r="G10" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="Z10" s="1"/>
+      <c r="L10" s="6"/>
+      <c r="AA10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -727,7 +760,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D11:I11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:I11, "0"))</f>
+        <f aca="false">IF(COUNTIF(D11:J11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:J11, "0"))</f>
         <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
@@ -739,8 +772,8 @@
       <c r="F11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>5</v>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>5</v>
@@ -748,9 +781,12 @@
       <c r="I11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K11" s="6"/>
-      <c r="Z11" s="1"/>
+      <c r="L11" s="6"/>
+      <c r="AA11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -760,41 +796,44 @@
         <v>27</v>
       </c>
       <c r="C12" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D12:I12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:I12, "0"))</f>
+        <f aca="false">IF(COUNTIF(D12:J12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:J12, "0"))</f>
         <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
+      <c r="E12" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>5</v>
+      <c r="G12" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="Z12" s="1"/>
+      <c r="L12" s="6"/>
+      <c r="AA12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D13:I13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:I13, "0"))</f>
-        <v>2</v>
+        <f aca="false">IF(COUNTIF(D13:J13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:J13, "0"))</f>
+        <v>3</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
@@ -805,8 +844,8 @@
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>5</v>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>5</v>
@@ -814,19 +853,22 @@
       <c r="I13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K13" s="6"/>
-      <c r="Z13" s="1"/>
+      <c r="L13" s="6"/>
+      <c r="AA13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D14:I14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:I14, "0"))</f>
+        <f aca="false">IF(COUNTIF(D14:J14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:J14, "0"))</f>
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
@@ -838,8 +880,8 @@
       <c r="F14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>5</v>
+      <c r="G14" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>5</v>
@@ -847,19 +889,22 @@
       <c r="I14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K14" s="6"/>
-      <c r="Z14" s="1"/>
+      <c r="L14" s="6"/>
+      <c r="AA14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D15:I15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:I15, "0"))</f>
+        <f aca="false">IF(COUNTIF(D15:J15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:J15, "0"))</f>
         <v>3</v>
       </c>
       <c r="D15" s="0" t="n">
@@ -871,28 +916,31 @@
       <c r="F15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>5</v>
-      </c>
       <c r="I15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="Z15" s="1"/>
+      <c r="L15" s="6"/>
+      <c r="AA15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D16:I16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:I16, "0"))</f>
+        <f aca="false">IF(COUNTIF(D16:J16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:J16, "0"))</f>
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
@@ -904,8 +952,8 @@
       <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>5</v>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>5</v>
@@ -913,19 +961,22 @@
       <c r="I16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K16" s="6"/>
-      <c r="Z16" s="1"/>
+      <c r="L16" s="6"/>
+      <c r="AA16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D17:I17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:I17, "0"))</f>
+        <f aca="false">IF(COUNTIF(D17:J17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:J17, "0"))</f>
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -937,8 +988,8 @@
       <c r="F17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>5</v>
+      <c r="G17" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>5</v>
@@ -946,19 +997,22 @@
       <c r="I17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K17" s="6"/>
-      <c r="Z17" s="1"/>
+      <c r="L17" s="6"/>
+      <c r="AA17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D18:I18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:I18, "0"))</f>
+        <f aca="false">IF(COUNTIF(D18:J18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:J18, "0"))</f>
         <v>3</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -970,8 +1024,8 @@
       <c r="F18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>8</v>
+      <c r="G18" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>8</v>
@@ -979,19 +1033,22 @@
       <c r="I18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="K18" s="6"/>
-      <c r="Z18" s="1"/>
+      <c r="L18" s="6"/>
+      <c r="AA18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D19:I19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:I19, "0"))</f>
+        <f aca="false">IF(COUNTIF(D19:J19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:J19, "0"))</f>
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -1003,8 +1060,8 @@
       <c r="F19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>5</v>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>5</v>
@@ -1012,19 +1069,22 @@
       <c r="I19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K19" s="6"/>
-      <c r="Z19" s="1"/>
+      <c r="L19" s="6"/>
+      <c r="AA19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D20:I20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:I20, "0"))</f>
+        <f aca="false">IF(COUNTIF(D20:J20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:J20, "0"))</f>
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
@@ -1036,8 +1096,8 @@
       <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>5</v>
+      <c r="G20" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>5</v>
@@ -1045,17 +1105,20 @@
       <c r="I20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="K20" s="6"/>
-      <c r="Z20" s="1"/>
+      <c r="L20" s="6"/>
+      <c r="AA20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="n">
-        <f aca="false">IF(COUNTIF(D21:I21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:I21, "0"))</f>
+        <f aca="false">IF(COUNTIF(D21:J21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:J21, "0"))</f>
         <v>1</v>
       </c>
       <c r="D21" s="0" t="n">
@@ -1067,40 +1130,21 @@
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G21" s="7" t="n">
-        <v>0</v>
+      <c r="G21" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
-      <c r="B22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
@@ -1109,21 +1153,21 @@
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="7" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1134,21 +1178,21 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="H24" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1159,21 +1203,45 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H25" s="7" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="n">
         <v>1</v>
       </c>
     </row>
